--- a/interface_testing/udts_api_test/test_file/test_api.xlsx
+++ b/interface_testing/udts_api_test/test_file/test_api.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Evan\my_programs\github_code\Testing\interface_testing\udts\test_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Evan\my_programs\github_code\Testing\interface_testing\udts_api_test\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C6B88-B8D8-4C6B-8122-4C5982F6CFA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9D1A1-6F3E-4D96-B1B2-B85C9BCABC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="1725" windowWidth="22335" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="1950" windowWidth="22335" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="接口自动化测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="UDTS-API-Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,325 +24,17 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>evaliu</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{53F6D9F7-E381-4CD0-BCC1-6F879CDFA93A}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-用例编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D8D6132A-5F0C-4324-B53D-DAE0196A1D67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口说明</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{31764259-581E-4604-8F40-0D776BA9D930}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口地址</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B96A6A73-3A18-49AC-B4FD-24DF8E0E780D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口请求地址</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0EA3FF64-8EC0-4739-AE0C-C0F4CABBEE48}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-接口请求方法</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{4E9BF249-CF51-4D76-B08B-7C5F13D6E28E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请求数据类型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{8A210A12-00DE-4372-91BE-9FD6520D1A67}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-请求数据内容
-多个参数用&amp;隔开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DD7BCAC3-F973-47D3-B724-09B1238916E2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-检查点
-多个参数用&amp;隔开</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{AAE43613-6EB8-4DFF-A126-883AD4C65AB2}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-关联</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{6E828359-DFBB-41DB-B317-651B17080129}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>evaliu:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-是否执行测试</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>proxy-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>API Purpose</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>API Host</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Request URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Data Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Request Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check Point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Correlation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Active</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://127.0.0.1:8000/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所有代理IP获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,6 +72,50 @@
   </si>
   <si>
     <t>proxy-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口请求地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口请求方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,21 +137,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -479,10 +196,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -503,10 +220,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -771,122 +484,121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/interface_testing/udts_api_test/test_file/test_api.xlsx
+++ b/interface_testing/udts_api_test/test_file/test_api.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Evan\my_programs\github_code\Testing\interface_testing\udts_api_test\test_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9D1A1-6F3E-4D96-B1B2-B85C9BCABC95}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4732F8E-F83B-468D-A670-BBAEDECE538D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2775" yWindow="1950" windowWidth="22335" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,12 +24,70 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>evaliu</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{870B4078-9070-48F6-892C-472120B448F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>evaliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+data / file</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{003458A7-EC13-49B4-90A3-BF70CEC5147B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>evaliu:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+检查点</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
-  <si>
-    <t>proxy-001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>API Host</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>proxy-002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,14 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否执行测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,6 +158,26 @@
   </si>
   <si>
     <t>前置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proxy_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +216,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -484,8 +561,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,107 +575,104 @@
     <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
+      <c r="H2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>21</v>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>